--- a/biology/Médecine/Marc_Galabru/Marc_Galabru.xlsx
+++ b/biology/Médecine/Marc_Galabru/Marc_Galabru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc Galabru, né le 30 janvier 1929 à Safi et mort le 5 octobre 2014 à Perpignan[1], est un médecin et écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Galabru, né le 30 janvier 1929 à Safi et mort le 5 octobre 2014 à Perpignan, est un médecin et écrivain français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Béziers, fils de Paul Galabru et d'Yvonne Payré, Marc Galabru est le frère cadet de Michel Galabru. Homme de lettres (il a notamment créé une revue littéraire avec Michel Polac[2]) autant que de théâtre. Il a exercé la médecine à Troyes, dans l'Aube[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Béziers, fils de Paul Galabru et d'Yvonne Payré, Marc Galabru est le frère cadet de Michel Galabru. Homme de lettres (il a notamment créé une revue littéraire avec Michel Polac) autant que de théâtre. Il a exercé la médecine à Troyes, dans l'Aube.
 Il est inhumé au cimetière vieux du Bousquet-d'Orb (Hérault).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Petit Cheval dans le mauvais temps, (récit), Moissac, Mille plumes, 2008, 275 p.  (ISBN 2-7480-2633-0) ; rééd. Moissac, Mille plumes, 2009, 230 p.
 Le Coup du soir, (récit), Moissac, Mille plumes, 2009, 254 p.  (ISBN 978-2-7480-3585-8) ; rééd. Moissac, Mille plumes, 2009, 257 p.  (ISBN 978-2-35826-018-3).
@@ -578,7 +594,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2008 : prix Littré de la meilleure nouvelle pour Le Coup du soir
 2008 : 1er prix au Printemps du rire de Toulouse
